--- a/web/src/main/resources/doc/excel.xlsx
+++ b/web/src/main/resources/doc/excel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA73587-E4F7-4E36-B144-197C00F0D87A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B393AE96-68C5-4558-A61D-038BEFDF4CEC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="power" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="73">
   <si>
     <t>pk_user</t>
   </si>
@@ -296,6 +296,10 @@
   </si>
   <si>
     <t>地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsonStr</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1143,10 +1147,513 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19ABAEBE-2958-4E0D-9770-0E4ECFFC6EEE}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.75" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="8" max="8" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="str">
+        <f>"private "&amp;IF(OR(C3="key",C3="text",C3="boolean",C3="time"),"String",IF(C3="number","BigDecimal",IF(C3="int","Integer","String")))&amp;" "&amp;B3&amp;" ;"</f>
+        <v>private String pk_role ;</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H14" si="0">B3&amp;" "&amp;IF(C3="key","char(20)",IF(C3="text","varchar2(100)",IF(C3="boolean","char(1)",IF(C3="time","char(19)",IF(C3="int","smallint",IF(C3="number","number(18,8)","varchar2(100)"))))))&amp;IF(F3=1,"  not null,",",")</f>
+        <v>pk_role char(20)  not null,</v>
+      </c>
+      <c r="I3" t="str">
+        <f>"comment on column"&amp;" "&amp;A3&amp;"."&amp;B3&amp;" is"&amp;" '"&amp;D3&amp;"';"</f>
+        <v>comment on column auth_role.pk_role is '主键';</v>
+      </c>
+      <c r="J3" s="4" t="str">
+        <f>"{field: '"&amp;B3&amp;"', title: '"&amp;D3&amp;"'},"</f>
+        <v>{field: 'pk_role', title: '主键'},</v>
+      </c>
+      <c r="K3" t="str">
+        <f>"{'field': '"&amp;B3&amp;"', 'title': '"&amp;D3&amp;"','type':'"&amp;C3&amp;"'},"</f>
+        <v>{'field': 'pk_role', 'title': '主键','type':'key'},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" ref="G4:G14" si="1">"private "&amp;IF(OR(C4="key",C4="text",C4="boolean",C4="time"),"String",IF(C4="number","BigDecimal",IF(C4="int","Integer","String")))&amp;" "&amp;B4&amp;" ;"</f>
+        <v>private String roleCode ;</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>roleCode varchar2(100)  not null,</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" ref="I4:I14" si="2">"comment on column"&amp;" "&amp;A4&amp;"."&amp;B4&amp;" is"&amp;" '"&amp;D4&amp;"';"</f>
+        <v>comment on column auth_role.roleCode is '角色编码';</v>
+      </c>
+      <c r="J4" s="4" t="str">
+        <f t="shared" ref="J4:J14" si="3">"{field: '"&amp;B4&amp;"', title: '"&amp;D4&amp;"'},"</f>
+        <v>{field: 'roleCode', title: '角色编码'},</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" ref="K4:K14" si="4">"{'field': '"&amp;B4&amp;"', 'title': '"&amp;D4&amp;"','type':'"&amp;C4&amp;"'},"</f>
+        <v>{'field': 'roleCode', 'title': '角色编码','type':'text'},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>private String roleName ;</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>roleName varchar2(100)  not null,</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column auth_role.roleName is '角色名称';</v>
+      </c>
+      <c r="J5" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'roleName', title: '角色名称'},</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="4"/>
+        <v>{'field': 'roleName', 'title': '角色名称','type':'text'},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>private String roleType ;</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>roleType varchar2(100),</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column auth_role.roleType is '角色类型';</v>
+      </c>
+      <c r="J6" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'roleType', title: '角色类型'},</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="4"/>
+        <v>{'field': 'roleType', 'title': '角色类型','type':'text'},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>private String memo ;</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>memo varchar2(100),</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column auth_role.memo is '备注';</v>
+      </c>
+      <c r="J7" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'memo', title: '备注'},</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="4"/>
+        <v>{'field': 'memo', 'title': '备注','type':'text'},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>private String enable ;</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>enable char(1),</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column auth_role.enable is '是否锁定';</v>
+      </c>
+      <c r="J8" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'enable', title: '是否锁定'},</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="4"/>
+        <v>{'field': 'enable', 'title': '是否锁定','type':'boolean'},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>private String creator ;</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>creator varchar2(100),</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column auth_role.creator is '创建人';</v>
+      </c>
+      <c r="J9" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'creator', title: '创建人'},</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="4"/>
+        <v>{'field': 'creator', 'title': '创建人','type':'text'},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>private String creationTime ;</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>creationTime char(19),</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column auth_role.creationTime is '创建时间';</v>
+      </c>
+      <c r="J10" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'creationTime', title: '创建时间'},</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="4"/>
+        <v>{'field': 'creationTime', 'title': '创建时间','type':'time'},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>private String modifier ;</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>modifier varchar2(100),</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column auth_role.modifier is '修改人';</v>
+      </c>
+      <c r="J11" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'modifier', title: '修改人'},</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="4"/>
+        <v>{'field': 'modifier', 'title': '修改人','type':'text'},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>private String modifyTime ;</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>modifyTime char(19),</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column auth_role.modifyTime is '修改时间';</v>
+      </c>
+      <c r="J12" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'modifyTime', title: '修改时间'},</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="4"/>
+        <v>{'field': 'modifyTime', 'title': '修改时间','type':'time'},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>private String ts ;</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>ts char(19),</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column auth_role.ts is '时间戳';</v>
+      </c>
+      <c r="J13" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'ts', title: '时间戳'},</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="4"/>
+        <v>{'field': 'ts', 'title': '时间戳','type':'time'},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>private String dr ;</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>dr char(1),</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column auth_role.dr is '删除标志';</v>
+      </c>
+      <c r="J14" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'dr', title: '删除标志'},</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="4"/>
+        <v>{'field': 'dr', 'title': '删除标志','type':'boolean'},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="3" t="str">
+        <f>IF(E3=1,"  constraint "&amp;B3&amp;" PRIMARY KEY ( "&amp;B3&amp;" ) ",",")</f>
+        <v xml:space="preserve">  constraint pk_role PRIMARY KEY ( pk_role ) </v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1203,457 +1710,6 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="str">
-        <f>"private "&amp;IF(OR(C3="key",C3="text",C3="boolean",C3="time"),"String",IF(C3="number","BigDecimal",IF(C3="int","Integer","String")))&amp;" "&amp;B3&amp;" ;"</f>
-        <v>private String pk_role ;</v>
-      </c>
-      <c r="H3" t="str">
-        <f t="shared" ref="H3:H14" si="0">B3&amp;" "&amp;IF(C3="key","char(20)",IF(C3="text","varchar2(100)",IF(C3="boolean","char(1)",IF(C3="time","char(19)",IF(C3="int","smallint",IF(C3="number","number(18,8)","varchar2(100)"))))))&amp;IF(F3=1,"  not null,",",")</f>
-        <v>pk_role char(20)  not null,</v>
-      </c>
-      <c r="I3" t="str">
-        <f>"comment on column"&amp;" "&amp;A3&amp;"."&amp;B3&amp;" is"&amp;" '"&amp;D3&amp;"';"</f>
-        <v>comment on column auth_role.pk_role is '主键';</v>
-      </c>
-      <c r="J3" s="4" t="str">
-        <f>"{field: '"&amp;B3&amp;"', title: '"&amp;D3&amp;"', width:80},"</f>
-        <v>{field: 'pk_role', title: '主键', width:80},</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="str">
-        <f t="shared" ref="G4:G14" si="1">"private "&amp;IF(OR(C4="key",C4="text",C4="boolean",C4="time"),"String",IF(C4="number","BigDecimal",IF(C4="int","Integer","String")))&amp;" "&amp;B4&amp;" ;"</f>
-        <v>private String roleCode ;</v>
-      </c>
-      <c r="H4" t="str">
-        <f t="shared" si="0"/>
-        <v>roleCode varchar2(100)  not null,</v>
-      </c>
-      <c r="I4" t="str">
-        <f t="shared" ref="I4:I14" si="2">"comment on column"&amp;" "&amp;A4&amp;"."&amp;B4&amp;" is"&amp;" '"&amp;D4&amp;"';"</f>
-        <v>comment on column auth_role.roleCode is '角色编码';</v>
-      </c>
-      <c r="J4" s="4" t="str">
-        <f t="shared" ref="J4:J14" si="3">"{field: '"&amp;B4&amp;"', title: '"&amp;D4&amp;"', width:80},"</f>
-        <v>{field: 'roleCode', title: '角色编码', width:80},</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="str">
-        <f t="shared" si="1"/>
-        <v>private String roleName ;</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" si="0"/>
-        <v>roleName varchar2(100)  not null,</v>
-      </c>
-      <c r="I5" t="str">
-        <f t="shared" si="2"/>
-        <v>comment on column auth_role.roleName is '角色名称';</v>
-      </c>
-      <c r="J5" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>{field: 'roleName', title: '角色名称', width:80},</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" si="1"/>
-        <v>private String roleType ;</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" si="0"/>
-        <v>roleType varchar2(100),</v>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" si="2"/>
-        <v>comment on column auth_role.roleType is '角色类型';</v>
-      </c>
-      <c r="J6" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>{field: 'roleType', title: '角色类型', width:80},</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" si="1"/>
-        <v>private String memo ;</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" si="0"/>
-        <v>memo varchar2(100),</v>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" si="2"/>
-        <v>comment on column auth_role.memo is '备注';</v>
-      </c>
-      <c r="J7" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>{field: 'memo', title: '备注', width:80},</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="1"/>
-        <v>private String enable ;</v>
-      </c>
-      <c r="H8" t="str">
-        <f t="shared" si="0"/>
-        <v>enable char(1),</v>
-      </c>
-      <c r="I8" t="str">
-        <f t="shared" si="2"/>
-        <v>comment on column auth_role.enable is '是否锁定';</v>
-      </c>
-      <c r="J8" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>{field: 'enable', title: '是否锁定', width:80},</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="1"/>
-        <v>private String creator ;</v>
-      </c>
-      <c r="H9" t="str">
-        <f t="shared" si="0"/>
-        <v>creator varchar2(100),</v>
-      </c>
-      <c r="I9" t="str">
-        <f t="shared" si="2"/>
-        <v>comment on column auth_role.creator is '创建人';</v>
-      </c>
-      <c r="J9" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>{field: 'creator', title: '创建人', width:80},</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" si="1"/>
-        <v>private String creationTime ;</v>
-      </c>
-      <c r="H10" t="str">
-        <f t="shared" si="0"/>
-        <v>creationTime char(19),</v>
-      </c>
-      <c r="I10" t="str">
-        <f t="shared" si="2"/>
-        <v>comment on column auth_role.creationTime is '创建时间';</v>
-      </c>
-      <c r="J10" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>{field: 'creationTime', title: '创建时间', width:80},</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" si="1"/>
-        <v>private String modifier ;</v>
-      </c>
-      <c r="H11" t="str">
-        <f t="shared" si="0"/>
-        <v>modifier varchar2(100),</v>
-      </c>
-      <c r="I11" t="str">
-        <f t="shared" si="2"/>
-        <v>comment on column auth_role.modifier is '修改人';</v>
-      </c>
-      <c r="J11" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>{field: 'modifier', title: '修改人', width:80},</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" si="1"/>
-        <v>private String modifyTime ;</v>
-      </c>
-      <c r="H12" t="str">
-        <f t="shared" si="0"/>
-        <v>modifyTime char(19),</v>
-      </c>
-      <c r="I12" t="str">
-        <f t="shared" si="2"/>
-        <v>comment on column auth_role.modifyTime is '修改时间';</v>
-      </c>
-      <c r="J12" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>{field: 'modifyTime', title: '修改时间', width:80},</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" si="1"/>
-        <v>private String ts ;</v>
-      </c>
-      <c r="H13" t="str">
-        <f t="shared" si="0"/>
-        <v>ts char(19),</v>
-      </c>
-      <c r="I13" t="str">
-        <f t="shared" si="2"/>
-        <v>comment on column auth_role.ts is '时间戳';</v>
-      </c>
-      <c r="J13" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>{field: 'ts', title: '时间戳', width:80},</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" t="str">
-        <f t="shared" si="1"/>
-        <v>private String dr ;</v>
-      </c>
-      <c r="H14" t="str">
-        <f t="shared" si="0"/>
-        <v>dr char(1),</v>
-      </c>
-      <c r="I14" t="str">
-        <f t="shared" si="2"/>
-        <v>comment on column auth_role.dr is '删除标志';</v>
-      </c>
-      <c r="J14" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>{field: 'dr', title: '删除标志', width:80},</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="3" t="str">
-        <f>IF(E3=1,"  constraint "&amp;B3&amp;" PRIMARY KEY ( "&amp;B3&amp;" ) ",",")</f>
-        <v xml:space="preserve">  constraint pk_role PRIMARY KEY ( pk_role ) </v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J21"/>
-  <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.75" customWidth="1"/>
-    <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="8" max="8" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="46.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
         <v>44</v>
       </c>
       <c r="B3" s="1" t="s">

--- a/web/src/main/resources/doc/excel.xlsx
+++ b/web/src/main/resources/doc/excel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B393AE96-68C5-4558-A61D-038BEFDF4CEC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822136D0-E103-46B2-9058-F17748BFAA37}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="role" sheetId="2" r:id="rId2"/>
     <sheet name="user" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -669,7 +669,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J15"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -744,7 +744,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="str">
-        <f>"private "&amp;IF(OR(C3="key",C3="text",C3="boolean",C3="time"),"String",IF(C3="number","BigDecimal",IF(C3="int","Integer","String")))&amp;" "&amp;B3&amp;" ;"</f>
+        <f>"private "&amp;IF(OR(C3="key",C3="text",C3="time"),"String",IF(C3="number","BigDecimal",IF(C3="int","Integer",IF(C3="boolean","BooleanExt","String"))))&amp;" "&amp;B3&amp;" ;"</f>
         <v>private String pk_power ;</v>
       </c>
       <c r="H3" t="str">
@@ -777,7 +777,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" ref="G4:G15" si="1">"private "&amp;IF(OR(C4="key",C4="text",C4="boolean",C4="time"),"String",IF(C4="number","BigDecimal",IF(C4="int","Integer","String")))&amp;" "&amp;B4&amp;" ;"</f>
+        <f t="shared" ref="G4:G15" si="1">"private "&amp;IF(OR(C4="key",C4="text",C4="time"),"String",IF(C4="number","BigDecimal",IF(C4="int","Integer",IF(C4="boolean","BooleanExt","String"))))&amp;" "&amp;B4&amp;" ;"</f>
         <v>private String powerCode ;</v>
       </c>
       <c r="H4" t="str">
@@ -931,7 +931,7 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
-        <v>private String enable ;</v>
+        <v>private BooleanExt enable ;</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
-        <v>private String dr ;</v>
+        <v>private BooleanExt dr ;</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
@@ -1150,7 +1150,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K14"/>
+      <selection activeCell="G3" sqref="G3:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1229,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="str">
-        <f>"private "&amp;IF(OR(C3="key",C3="text",C3="boolean",C3="time"),"String",IF(C3="number","BigDecimal",IF(C3="int","Integer","String")))&amp;" "&amp;B3&amp;" ;"</f>
+        <f>"private "&amp;IF(OR(C3="key",C3="text",C3="time"),"String",IF(C3="number","BigDecimal",IF(C3="int","Integer",IF(C3="boolean","BooleanExt","String"))))&amp;" "&amp;B3&amp;" ;"</f>
         <v>private String pk_role ;</v>
       </c>
       <c r="H3" t="str">
@@ -1266,7 +1266,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" ref="G4:G14" si="1">"private "&amp;IF(OR(C4="key",C4="text",C4="boolean",C4="time"),"String",IF(C4="number","BigDecimal",IF(C4="int","Integer","String")))&amp;" "&amp;B4&amp;" ;"</f>
+        <f t="shared" ref="G4:G14" si="1">"private "&amp;IF(OR(C4="key",C4="text",C4="time"),"String",IF(C4="number","BigDecimal",IF(C4="int","Integer",IF(C4="boolean","BooleanExt","String"))))&amp;" "&amp;B4&amp;" ;"</f>
         <v>private String roleCode ;</v>
       </c>
       <c r="H4" t="str">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
-        <v>private String enable ;</v>
+        <v>private BooleanExt enable ;</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
@@ -1610,7 +1610,7 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="1"/>
-        <v>private String dr ;</v>
+        <v>private BooleanExt dr ;</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
@@ -1653,7 +1653,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1728,7 +1728,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="str">
-        <f>"private "&amp;IF(OR(C3="key",C3="text",C3="boolean",C3="time"),"String",IF(C3="number","BigDecimal",IF(C3="int","Integer","String")))&amp;" "&amp;B3&amp;" ;"</f>
+        <f>"private "&amp;IF(OR(C3="key",C3="text",C3="time"),"String",IF(C3="number","BigDecimal",IF(C3="int","Integer",IF(C3="boolean","BooleanExt","String"))))&amp;" "&amp;B3&amp;" ;"</f>
         <v>private String pk_user ;</v>
       </c>
       <c r="H3" t="str">
@@ -1761,7 +1761,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" ref="G4:G19" si="1">"private "&amp;IF(OR(C4="key",C4="text",C4="boolean",C4="time"),"String",IF(C4="number","BigDecimal",IF(C4="int","Integer","String")))&amp;" "&amp;B4&amp;" ;"</f>
+        <f t="shared" ref="G4:G19" si="1">"private "&amp;IF(OR(C4="key",C4="text",C4="time"),"String",IF(C4="number","BigDecimal",IF(C4="int","Integer",IF(C4="boolean","BooleanExt","String"))))&amp;" "&amp;B4&amp;" ;"</f>
         <v>private String userCode ;</v>
       </c>
       <c r="H4" t="str">
@@ -1855,7 +1855,7 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
-        <v>private String isLocked ;</v>
+        <v>private BooleanExt isLocked ;</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
@@ -2215,7 +2215,7 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="1"/>
-        <v>private String dr ;</v>
+        <v>private BooleanExt dr ;</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>

--- a/web/src/main/resources/doc/excel.xlsx
+++ b/web/src/main/resources/doc/excel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822136D0-E103-46B2-9058-F17748BFAA37}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C5EA3B-E2E5-4DB2-9020-C8CDB4EAB14A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="power" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="96">
   <si>
     <t>pk_user</t>
   </si>
@@ -301,6 +301,90 @@
   <si>
     <t>jsonStr</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>win.auth.role.vo.RoleVO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>win.auth.power.vo.PowerVO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>auth_user_role</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_user_role</t>
+  </si>
+  <si>
+    <t>pk_role</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户主键</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色主键</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_user_role char(20),</t>
+  </si>
+  <si>
+    <t>pk_user char(20),</t>
+  </si>
+  <si>
+    <t>pk_role char(20),</t>
+  </si>
+  <si>
+    <t>ts char(19),</t>
+  </si>
+  <si>
+    <t>dr char(1),</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> constraint pk_user_role PRIMARY KEY ( pk_user_role ) </t>
+  </si>
+  <si>
+    <t>auth_role_power</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_role_power</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_power</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_role_power char(20),</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_power char(20),</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能主键</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> constraint pk_role_power PRIMARY KEY ( pk_role_power ) </t>
   </si>
 </sst>
 </file>
@@ -669,7 +753,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -684,7 +768,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1147,10 +1231,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19ABAEBE-2958-4E0D-9770-0E4ECFFC6EEE}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1166,7 +1250,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1636,6 +1720,142 @@
       <c r="H16" s="3" t="str">
         <f>IF(E3=1,"  constraint "&amp;B3&amp;" PRIMARY KEY ( "&amp;B3&amp;" ) ",",")</f>
         <v xml:space="preserve">  constraint pk_role PRIMARY KEY ( pk_role ) </v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="str">
+        <f>"private "&amp;IF(OR(C23="key",C23="text",C23="time"),"String",IF(C23="number","BigDecimal",IF(C23="int","Integer",IF(C23="boolean","BooleanExt","String"))))&amp;" "&amp;B23&amp;" ;"</f>
+        <v>private String pk_role_power ;</v>
+      </c>
+      <c r="H23" t="s">
+        <v>92</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" ref="I23:I29" si="5">"comment on column"&amp;" "&amp;A23&amp;"."&amp;B23&amp;" is"&amp;" '"&amp;D23&amp;"';"</f>
+        <v>comment on column auth_role_power.pk_role_power is '主键';</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" ref="G24:G27" si="6">"private "&amp;IF(OR(C24="key",C24="text",C24="time"),"String",IF(C24="number","BigDecimal",IF(C24="int","Integer",IF(C24="boolean","BooleanExt","String"))))&amp;" "&amp;B24&amp;" ;"</f>
+        <v>private String pk_power ;</v>
+      </c>
+      <c r="H24" t="s">
+        <v>93</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="5"/>
+        <v>comment on column auth_role_power.pk_power is '功能主键';</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="6"/>
+        <v>private String pk_role ;</v>
+      </c>
+      <c r="H25" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="5"/>
+        <v>comment on column auth_role_power.pk_role is '角色主键';</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="6"/>
+        <v>private String ts ;</v>
+      </c>
+      <c r="H26" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="5"/>
+        <v>comment on column auth_role_power.ts is '时间戳';</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="6"/>
+        <v>private BooleanExt dr ;</v>
+      </c>
+      <c r="H27" t="s">
+        <v>87</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="5"/>
+        <v>comment on column auth_role_power.dr is '删除标志';</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1650,14 +1870,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.75" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
@@ -1732,7 +1953,7 @@
         <v>private String pk_user ;</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H19" si="0">B3&amp;" "&amp;IF(C3="key","char(20)",IF(C3="text","varchar2(100)",IF(C3="boolean","char(1)",IF(C3="time","char(19)",IF(C3="int","smallint",IF(C3="number","number(18,8)","varchar2(100)"))))))&amp;IF(F3=1,"  not null,",",")</f>
+        <f t="shared" ref="H3:H27" si="0">B3&amp;" "&amp;IF(C3="key","char(20)",IF(C3="text","varchar2(100)",IF(C3="boolean","char(1)",IF(C3="time","char(19)",IF(C3="int","smallint",IF(C3="number","number(18,8)","varchar2(100)"))))))&amp;IF(F3=1,"  not null,",",")</f>
         <v>pk_user char(20)  not null,</v>
       </c>
       <c r="I3" t="str">
@@ -1761,7 +1982,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" ref="G4:G19" si="1">"private "&amp;IF(OR(C4="key",C4="text",C4="time"),"String",IF(C4="number","BigDecimal",IF(C4="int","Integer",IF(C4="boolean","BooleanExt","String"))))&amp;" "&amp;B4&amp;" ;"</f>
+        <f t="shared" ref="G4:G23" si="1">"private "&amp;IF(OR(C4="key",C4="text",C4="time"),"String",IF(C4="number","BigDecimal",IF(C4="int","Integer",IF(C4="boolean","BooleanExt","String"))))&amp;" "&amp;B4&amp;" ;"</f>
         <v>private String userCode ;</v>
       </c>
       <c r="H4" t="str">
@@ -1769,7 +1990,7 @@
         <v>userCode varchar2(100)  not null,</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" ref="I4:I19" si="2">"comment on column"&amp;" "&amp;A4&amp;"."&amp;B4&amp;" is"&amp;" '"&amp;D4&amp;"';"</f>
+        <f t="shared" ref="I4:I27" si="2">"comment on column"&amp;" "&amp;A4&amp;"."&amp;B4&amp;" is"&amp;" '"&amp;D4&amp;"';"</f>
         <v>comment on column auth_user.userCode is '用户编码';</v>
       </c>
       <c r="J4" s="4" t="str">
@@ -2230,6 +2451,12 @@
         <v>{field: 'dr', title: '删除标志', width:80},</v>
       </c>
     </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I20" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column . is '';</v>
+      </c>
+    </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G21" s="2" t="s">
         <v>47</v>
@@ -2237,6 +2464,152 @@
       <c r="H21" s="3" t="str">
         <f>IF(E3=1,"  constraint "&amp;B3&amp;" PRIMARY KEY ( "&amp;B3&amp;" ) ",",")</f>
         <v xml:space="preserve">  constraint pk_user PRIMARY KEY ( pk_user ) </v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column . is '';</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I22" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column . is '';</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="str">
+        <f>"private "&amp;IF(OR(C23="key",C23="text",C23="time"),"String",IF(C23="number","BigDecimal",IF(C23="int","Integer",IF(C23="boolean","BooleanExt","String"))))&amp;" "&amp;B23&amp;" ;"</f>
+        <v>private String pk_user_role ;</v>
+      </c>
+      <c r="H23" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column auth_user_role.pk_user_role is '主键';</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" ref="G24:G27" si="4">"private "&amp;IF(OR(C24="key",C24="text",C24="time"),"String",IF(C24="number","BigDecimal",IF(C24="int","Integer",IF(C24="boolean","BooleanExt","String"))))&amp;" "&amp;B24&amp;" ;"</f>
+        <v>private String pk_user ;</v>
+      </c>
+      <c r="H24" t="s">
+        <v>84</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column auth_user_role.pk_user is '用户主键';</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="4"/>
+        <v>private String pk_role ;</v>
+      </c>
+      <c r="H25" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column auth_user_role.pk_role is '角色主键';</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="4"/>
+        <v>private String ts ;</v>
+      </c>
+      <c r="H26" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column auth_user_role.ts is '时间戳';</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="4"/>
+        <v>private BooleanExt dr ;</v>
+      </c>
+      <c r="H27" t="s">
+        <v>87</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column auth_user_role.dr is '删除标志';</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/web/src/main/resources/doc/excel.xlsx
+++ b/web/src/main/resources/doc/excel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C5EA3B-E2E5-4DB2-9020-C8CDB4EAB14A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94087C08-1AF1-4843-8CE6-45DE36390962}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="power" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="104">
   <si>
     <t>pk_user</t>
   </si>
@@ -385,6 +385,38 @@
   </si>
   <si>
     <t xml:space="preserve"> constraint pk_role_power PRIMARY KEY ( pk_role_power ) </t>
+  </si>
+  <si>
+    <t>pk_parent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级节点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>isDir</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否目录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>route</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -750,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071B9D5D-D580-4BA1-8A81-94A6AD6C48D6}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -832,7 +864,7 @@
         <v>private String pk_power ;</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H15" si="0">B3&amp;" "&amp;IF(C3="key","char(20)",IF(C3="text","varchar2(100)",IF(C3="boolean","char(1)",IF(C3="time","char(19)",IF(C3="int","smallint",IF(C3="number","number(18,8)","varchar2(100)"))))))&amp;IF(F3=1,"  not null,",",")</f>
+        <f t="shared" ref="H3:H18" si="0">B3&amp;" "&amp;IF(C3="key","char(20)",IF(C3="text","varchar2(100)",IF(C3="boolean","char(1)",IF(C3="time","char(19)",IF(C3="int","smallint",IF(C3="number","number(18,8)","varchar2(100)"))))))&amp;IF(F3=1,"  not null,",",")</f>
         <v>pk_power char(20)  not null,</v>
       </c>
       <c r="I3" t="str">
@@ -861,7 +893,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" ref="G4:G15" si="1">"private "&amp;IF(OR(C4="key",C4="text",C4="time"),"String",IF(C4="number","BigDecimal",IF(C4="int","Integer",IF(C4="boolean","BooleanExt","String"))))&amp;" "&amp;B4&amp;" ;"</f>
+        <f t="shared" ref="G4:G18" si="1">"private "&amp;IF(OR(C4="key",C4="text",C4="time"),"String",IF(C4="number","BigDecimal",IF(C4="int","Integer",IF(C4="boolean","BooleanExt","String"))))&amp;" "&amp;B4&amp;" ;"</f>
         <v>private String powerCode ;</v>
       </c>
       <c r="H4" t="str">
@@ -869,11 +901,11 @@
         <v>powerCode varchar2(100)  not null,</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" ref="I4:I15" si="2">"comment on column"&amp;" "&amp;A4&amp;"."&amp;B4&amp;" is"&amp;" '"&amp;D4&amp;"';"</f>
+        <f t="shared" ref="I4:I18" si="2">"comment on column"&amp;" "&amp;A4&amp;"."&amp;B4&amp;" is"&amp;" '"&amp;D4&amp;"';"</f>
         <v>comment on column auth_power.powerCode is '功能编码';</v>
       </c>
       <c r="J4" s="4" t="str">
-        <f t="shared" ref="J4:J15" si="3">"{field: '"&amp;B4&amp;"', title: '"&amp;D4&amp;"', width:80},"</f>
+        <f t="shared" ref="J4:J18" si="3">"{field: '"&amp;B4&amp;"', title: '"&amp;D4&amp;"', width:80},"</f>
         <v>{field: 'powerCode', title: '功能编码', width:80},</v>
       </c>
     </row>
@@ -1035,29 +1067,29 @@
         <v>62</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
-        <v>private String creator ;</v>
+        <v>private String pk_parent ;</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
-        <v>creator varchar2(100),</v>
+        <v>pk_parent char(20),</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="2"/>
-        <v>comment on column auth_power.creator is '创建人';</v>
+        <v>comment on column auth_power.pk_parent is '上级节点';</v>
       </c>
       <c r="J10" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>{field: 'creator', title: '创建人', width:80},</v>
+        <v>{field: 'pk_parent', title: '上级节点', width:80},</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1065,29 +1097,29 @@
         <v>62</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
-        <v>private String creationTime ;</v>
+        <v>private String route ;</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
-        <v>creationTime char(19),</v>
+        <v>route varchar2(100),</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="2"/>
-        <v>comment on column auth_power.creationTime is '创建时间';</v>
+        <v>comment on column auth_power.route is '路径';</v>
       </c>
       <c r="J11" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>{field: 'creationTime', title: '创建时间', width:80},</v>
+        <v>{field: 'route', title: '路径', width:80},</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1095,29 +1127,29 @@
         <v>62</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
-        <v>private String modifier ;</v>
+        <v>private BooleanExt isDir ;</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
-        <v>modifier varchar2(100),</v>
+        <v>isDir char(1),</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="2"/>
-        <v>comment on column auth_power.modifier is '修改人';</v>
+        <v>comment on column auth_power.isDir is '是否目录';</v>
       </c>
       <c r="J12" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>{field: 'modifier', title: '修改人', width:80},</v>
+        <v>{field: 'isDir', title: '是否目录', width:80},</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1125,29 +1157,29 @@
         <v>62</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="1"/>
-        <v>private String modifyTime ;</v>
+        <v>private String creator ;</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
-        <v>modifyTime char(19),</v>
+        <v>creator varchar2(100),</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="2"/>
-        <v>comment on column auth_power.modifyTime is '修改时间';</v>
+        <v>comment on column auth_power.creator is '创建人';</v>
       </c>
       <c r="J13" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>{field: 'modifyTime', title: '修改时间', width:80},</v>
+        <v>{field: 'creator', title: '创建人', width:80},</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1155,29 +1187,29 @@
         <v>62</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="1"/>
-        <v>private String ts ;</v>
+        <v>private String creationTime ;</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
-        <v>ts char(19),</v>
+        <v>creationTime char(19),</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="2"/>
-        <v>comment on column auth_power.ts is '时间戳';</v>
+        <v>comment on column auth_power.creationTime is '创建时间';</v>
       </c>
       <c r="J14" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>{field: 'ts', title: '时间戳', width:80},</v>
+        <v>{field: 'creationTime', title: '创建时间', width:80},</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1185,36 +1217,126 @@
         <v>62</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>private String modifier ;</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>modifier varchar2(100),</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column auth_power.modifier is '修改人';</v>
+      </c>
+      <c r="J15" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'modifier', title: '修改人', width:80},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>private String modifyTime ;</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>modifyTime char(19),</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column auth_power.modifyTime is '修改时间';</v>
+      </c>
+      <c r="J16" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'modifyTime', title: '修改时间', width:80},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>private String ts ;</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>ts char(19),</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column auth_power.ts is '时间戳';</v>
+      </c>
+      <c r="J17" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'ts', title: '时间戳', width:80},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D18" t="s">
         <v>33</v>
       </c>
-      <c r="G15" t="str">
+      <c r="G18" t="str">
         <f t="shared" si="1"/>
         <v>private BooleanExt dr ;</v>
       </c>
-      <c r="H15" t="str">
+      <c r="H18" t="str">
         <f t="shared" si="0"/>
         <v>dr char(1),</v>
       </c>
-      <c r="I15" t="str">
+      <c r="I18" t="str">
         <f t="shared" si="2"/>
         <v>comment on column auth_power.dr is '删除标志';</v>
       </c>
-      <c r="J15" s="4" t="str">
+      <c r="J18" s="4" t="str">
         <f t="shared" si="3"/>
         <v>{field: 'dr', title: '删除标志', width:80},</v>
       </c>
     </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G17" s="2" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G20" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="3" t="str">
+      <c r="H20" s="3" t="str">
         <f>IF(E3=1,"  constraint "&amp;B3&amp;" PRIMARY KEY ( "&amp;B3&amp;" ) ",",")</f>
         <v xml:space="preserve">  constraint pk_power PRIMARY KEY ( pk_power ) </v>
       </c>
@@ -1233,7 +1355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19ABAEBE-2958-4E0D-9770-0E4ECFFC6EEE}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -1746,7 +1868,7 @@
         <v>92</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" ref="I23:I29" si="5">"comment on column"&amp;" "&amp;A23&amp;"."&amp;B23&amp;" is"&amp;" '"&amp;D23&amp;"';"</f>
+        <f t="shared" ref="I23:I27" si="5">"comment on column"&amp;" "&amp;A23&amp;"."&amp;B23&amp;" is"&amp;" '"&amp;D23&amp;"';"</f>
         <v>comment on column auth_role_power.pk_role_power is '主键';</v>
       </c>
     </row>
@@ -1953,7 +2075,7 @@
         <v>private String pk_user ;</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H27" si="0">B3&amp;" "&amp;IF(C3="key","char(20)",IF(C3="text","varchar2(100)",IF(C3="boolean","char(1)",IF(C3="time","char(19)",IF(C3="int","smallint",IF(C3="number","number(18,8)","varchar2(100)"))))))&amp;IF(F3=1,"  not null,",",")</f>
+        <f t="shared" ref="H3:H19" si="0">B3&amp;" "&amp;IF(C3="key","char(20)",IF(C3="text","varchar2(100)",IF(C3="boolean","char(1)",IF(C3="time","char(19)",IF(C3="int","smallint",IF(C3="number","number(18,8)","varchar2(100)"))))))&amp;IF(F3=1,"  not null,",",")</f>
         <v>pk_user char(20)  not null,</v>
       </c>
       <c r="I3" t="str">
@@ -1982,7 +2104,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" ref="G4:G23" si="1">"private "&amp;IF(OR(C4="key",C4="text",C4="time"),"String",IF(C4="number","BigDecimal",IF(C4="int","Integer",IF(C4="boolean","BooleanExt","String"))))&amp;" "&amp;B4&amp;" ;"</f>
+        <f t="shared" ref="G4:G19" si="1">"private "&amp;IF(OR(C4="key",C4="text",C4="time"),"String",IF(C4="number","BigDecimal",IF(C4="int","Integer",IF(C4="boolean","BooleanExt","String"))))&amp;" "&amp;B4&amp;" ;"</f>
         <v>private String userCode ;</v>
       </c>
       <c r="H4" t="str">

--- a/web/src/main/resources/doc/excel.xlsx
+++ b/web/src/main/resources/doc/excel.xlsx
@@ -1,16 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94087C08-1AF1-4843-8CE6-45DE36390962}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3918534-3BAF-428A-B13A-52379B27D5EA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="power" sheetId="3" r:id="rId1"/>
-    <sheet name="role" sheetId="2" r:id="rId2"/>
-    <sheet name="user" sheetId="1" r:id="rId3"/>
+    <sheet name="评论" sheetId="12" r:id="rId1"/>
+    <sheet name="帖子" sheetId="11" r:id="rId2"/>
+    <sheet name="订单明细" sheetId="10" r:id="rId3"/>
+    <sheet name="订单" sheetId="9" r:id="rId4"/>
+    <sheet name="用户购买的资源" sheetId="7" r:id="rId5"/>
+    <sheet name="资源" sheetId="6" r:id="rId6"/>
+    <sheet name="知识库" sheetId="8" r:id="rId7"/>
+    <sheet name="陶瓷" sheetId="5" r:id="rId8"/>
+    <sheet name="作者" sheetId="4" r:id="rId9"/>
+    <sheet name="power" sheetId="3" r:id="rId10"/>
+    <sheet name="role" sheetId="2" r:id="rId11"/>
+    <sheet name="user" sheetId="1" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -22,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="194">
   <si>
     <t>pk_user</t>
   </si>
@@ -416,6 +425,366 @@
   </si>
   <si>
     <t>路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chn_author</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_author</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>record</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备案号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cantact</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>win.chn.author.vo.AuthorVO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>win.chn.china.vo.ChinaVO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_china</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kilneye</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窑口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>times</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>年代</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>造型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>简介</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键词</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyword</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>syskeyword</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统关键词</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chn_resource</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chn_china</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>win.chn.rsur.vo.ResourceVO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_resource</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>permtype</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>secourcetype</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderno</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>billtype</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>win.chn.rsur.vo.UserResourceVO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chn_user_resource</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_user_resource</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>endtime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源主键</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属陶瓷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_know</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属知识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>journalnum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>期刊号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>win.chn.order.vo.OrderVO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chn_order</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_order</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>memeo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>win.chn.order.vo.OrderBVO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chn_order_b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_order_b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主表主键</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>win.pst.post.vo.PostVO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pst_post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>photo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>photoposi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>win.chn.know.vo.KnowVO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chn_know</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>win.pst.comment.voCommentVO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pst_comment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_comment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>父节点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>路由</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -781,10 +1150,495 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20D57EC7-28C1-4221-B570-39F973D32143}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.75" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="8" max="8" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="str">
+        <f>"private "&amp;IF(OR(C3="key",C3="text",C3="time"),"String",IF(C3="number","BigDecimal",IF(C3="int","Integer",IF(C3="boolean","BooleanExt","String"))))&amp;" "&amp;B3&amp;" ;"</f>
+        <v>private String pk_comment ;</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H15" si="0">B3&amp;" "&amp;IF(C3="key","char(20)",IF(C3="text","varchar2(100)",IF(C3="boolean","char(1)",IF(C3="time","char(19)",IF(C3="int","smallint",IF(C3="number","number(18,8)","varchar2(100)"))))))&amp;IF(F3=1,"  not null,",",")</f>
+        <v>pk_comment char(20)  not null,</v>
+      </c>
+      <c r="I3" t="str">
+        <f>"comment on column"&amp;" "&amp;A4&amp;"."&amp;B3&amp;" is"&amp;" '"&amp;D3&amp;"';"</f>
+        <v>comment on column pst_comment.pk_comment is '主键';</v>
+      </c>
+      <c r="J3" s="4" t="str">
+        <f>"{field: '"&amp;B3&amp;"', title: '"&amp;D3&amp;"', width:80},"</f>
+        <v>{field: 'pk_comment', title: '主键', width:80},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="str">
+        <f>"private "&amp;IF(OR(C4="key",C4="text",C4="time"),"String",IF(C4="number","BigDecimal",IF(C4="int","Integer",IF(C4="boolean","BooleanExt","String"))))&amp;" "&amp;B4&amp;" ;"</f>
+        <v>private String title ;</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>title varchar2(100)  not null,</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" ref="I4:I9" si="1">"comment on column"&amp;" "&amp;A5&amp;"."&amp;B4&amp;" is"&amp;" '"&amp;D4&amp;"';"</f>
+        <v>comment on column pst_comment.title is '主题';</v>
+      </c>
+      <c r="J4" s="4" t="str">
+        <f>"{field: '"&amp;B4&amp;"', title: '"&amp;D4&amp;"', width:80},"</f>
+        <v>{field: 'title', title: '主题', width:80},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" ref="G5:G15" si="2">"private "&amp;IF(OR(C5="key",C5="text",C5="time"),"String",IF(C5="number","BigDecimal",IF(C5="int","Integer",IF(C5="boolean","BooleanExt","String"))))&amp;" "&amp;B5&amp;" ;"</f>
+        <v>private String content ;</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>content varchar2(100),</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="1"/>
+        <v>comment on column pst_comment.content is '内容';</v>
+      </c>
+      <c r="J5" s="4" t="str">
+        <f t="shared" ref="J5:J15" si="3">"{field: '"&amp;B5&amp;"', title: '"&amp;D5&amp;"', width:80},"</f>
+        <v>{field: 'content', title: '内容', width:80},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>184</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="2"/>
+        <v>private String photo ;</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>photo varchar2(100),</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="1"/>
+        <v>comment on column pst_comment.photo is '图片';</v>
+      </c>
+      <c r="J6" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'photo', title: '图片', width:80},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="2"/>
+        <v>private String photoposi ;</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>photoposi varchar2(100)  not null,</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="1"/>
+        <v>comment on column pst_comment.photoposi is '图片位置';</v>
+      </c>
+      <c r="J7" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'photoposi', title: '图片位置', width:80},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="2"/>
+        <v>private String pk_parent ;</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>pk_parent char(20),</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="1"/>
+        <v>comment on column pst_comment.pk_parent is '父节点';</v>
+      </c>
+      <c r="J8" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'pk_parent', title: '父节点', width:80},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>193</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="2"/>
+        <v>private String route ;</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>route varchar2(100),</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="1"/>
+        <v>comment on column pst_comment.route is '路由';</v>
+      </c>
+      <c r="J9" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'route', title: '路由', width:80},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="2"/>
+        <v>private String creator ;</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>creator varchar2(100),</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" ref="I5:I15" si="4">"comment on column"&amp;" "&amp;A10&amp;"."&amp;B10&amp;" is"&amp;" '"&amp;D10&amp;"';"</f>
+        <v>comment on column pst_comment.creator is '创建人';</v>
+      </c>
+      <c r="J10" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'creator', title: '创建人', width:80},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="2"/>
+        <v>private String creationTime ;</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>creationTime char(19),</v>
+      </c>
+      <c r="I11" t="str">
+        <f>"comment on column"&amp;" "&amp;A11&amp;"."&amp;B11&amp;" is"&amp;" '"&amp;D11&amp;"';"</f>
+        <v>comment on column pst_comment.creationTime is '创建时间';</v>
+      </c>
+      <c r="J11" s="4" t="str">
+        <f>"{field: '"&amp;B11&amp;"', title: '"&amp;D11&amp;"', width:80},"</f>
+        <v>{field: 'creationTime', title: '创建时间', width:80},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" t="str">
+        <f t="shared" si="2"/>
+        <v>private String modifier ;</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>modifier varchar2(100),</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" ref="I12:I13" si="5">"comment on column"&amp;" "&amp;A12&amp;"."&amp;B12&amp;" is"&amp;" '"&amp;D12&amp;"';"</f>
+        <v>comment on column pst_comment.modifier is '修改人';</v>
+      </c>
+      <c r="J12" s="4" t="str">
+        <f t="shared" ref="J12:J13" si="6">"{field: '"&amp;B12&amp;"', title: '"&amp;D12&amp;"', width:80},"</f>
+        <v>{field: 'modifier', title: '修改人', width:80},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" t="str">
+        <f t="shared" si="2"/>
+        <v>private String modifyTime ;</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>modifyTime char(19),</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="5"/>
+        <v>comment on column pst_comment.modifyTime is '修改时间';</v>
+      </c>
+      <c r="J13" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>{field: 'modifyTime', title: '修改时间', width:80},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="2"/>
+        <v>private String ts ;</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>ts char(19),</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="4"/>
+        <v>comment on column pst_comment.ts is '时间戳';</v>
+      </c>
+      <c r="J14" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'ts', title: '时间戳', width:80},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>190</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="2"/>
+        <v>private BooleanExt dr ;</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>dr char(1),</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="4"/>
+        <v>comment on column pst_comment.dr is '删除标志';</v>
+      </c>
+      <c r="J15" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'dr', title: '删除标志', width:80},</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="3" t="str">
+        <f>IF(E3=1,"  constraint "&amp;B3&amp;" PRIMARY KEY ( "&amp;B3&amp;" ) ",",")</f>
+        <v xml:space="preserve">  constraint pk_comment PRIMARY KEY ( pk_comment ) </v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071B9D5D-D580-4BA1-8A81-94A6AD6C48D6}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -1351,7 +2205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19ABAEBE-2958-4E0D-9770-0E4ECFFC6EEE}">
   <dimension ref="A1:K29"/>
   <sheetViews>
@@ -1990,7 +2844,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J29"/>
   <sheetViews>
@@ -2742,4 +3596,3943 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7CEF7C4-0683-49B4-BBA1-9FDAF006C8C0}">
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.75" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="8" max="8" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="str">
+        <f>"private "&amp;IF(OR(C3="key",C3="text",C3="time"),"String",IF(C3="number","BigDecimal",IF(C3="int","Integer",IF(C3="boolean","BooleanExt","String"))))&amp;" "&amp;B3&amp;" ;"</f>
+        <v>private String pk_post ;</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H13" si="0">B3&amp;" "&amp;IF(C3="key","char(20)",IF(C3="text","varchar2(100)",IF(C3="boolean","char(1)",IF(C3="time","char(19)",IF(C3="int","smallint",IF(C3="number","number(18,8)","varchar2(100)"))))))&amp;IF(F3=1,"  not null,",",")</f>
+        <v>pk_post char(20)  not null,</v>
+      </c>
+      <c r="I3" t="str">
+        <f>"comment on column"&amp;" "&amp;A4&amp;"."&amp;B3&amp;" is"&amp;" '"&amp;D3&amp;"';"</f>
+        <v>comment on column pst_post.pk_post is '主键';</v>
+      </c>
+      <c r="J3" s="4" t="str">
+        <f>"{field: '"&amp;B3&amp;"', title: '"&amp;D3&amp;"', width:80},"</f>
+        <v>{field: 'pk_post', title: '主键', width:80},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="str">
+        <f>"private "&amp;IF(OR(C4="key",C4="text",C4="time"),"String",IF(C4="number","BigDecimal",IF(C4="int","Integer",IF(C4="boolean","BooleanExt","String"))))&amp;" "&amp;B4&amp;" ;"</f>
+        <v>private String title ;</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>title varchar2(100)  not null,</v>
+      </c>
+      <c r="I4" t="e">
+        <f>"comment on column"&amp;" "&amp;#REF!&amp;"."&amp;B4&amp;" is"&amp;" '"&amp;D4&amp;"';"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J4" s="4" t="str">
+        <f>"{field: '"&amp;B4&amp;"', title: '"&amp;D4&amp;"', width:80},"</f>
+        <v>{field: 'title', title: '主题', width:80},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" ref="G5:G13" si="1">"private "&amp;IF(OR(C5="key",C5="text",C5="time"),"String",IF(C5="number","BigDecimal",IF(C5="int","Integer",IF(C5="boolean","BooleanExt","String"))))&amp;" "&amp;B5&amp;" ;"</f>
+        <v>private String content ;</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>content varchar2(100),</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" ref="I5:I13" si="2">"comment on column"&amp;" "&amp;A5&amp;"."&amp;B5&amp;" is"&amp;" '"&amp;D5&amp;"';"</f>
+        <v>comment on column pst_post.content is '内容';</v>
+      </c>
+      <c r="J5" s="4" t="str">
+        <f t="shared" ref="J5:J13" si="3">"{field: '"&amp;B5&amp;"', title: '"&amp;D5&amp;"', width:80},"</f>
+        <v>{field: 'content', title: '内容', width:80},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>184</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>private String photo ;</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>photo varchar2(100),</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column pst_post.photo is '图片';</v>
+      </c>
+      <c r="J6" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'photo', title: '图片', width:80},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>private String photoposi ;</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>photoposi varchar2(100)  not null,</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column pst_post.photoposi is '图片位置';</v>
+      </c>
+      <c r="J7" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'photoposi', title: '图片位置', width:80},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>private String creator ;</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>creator varchar2(100),</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column pst_post.creator is '创建人';</v>
+      </c>
+      <c r="J8" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'creator', title: '创建人', width:80},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>private String creationTime ;</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>creationTime char(19),</v>
+      </c>
+      <c r="I9" t="str">
+        <f>"comment on column"&amp;" "&amp;A9&amp;"."&amp;B9&amp;" is"&amp;" '"&amp;D9&amp;"';"</f>
+        <v>comment on column pst_post.creationTime is '创建时间';</v>
+      </c>
+      <c r="J9" s="4" t="str">
+        <f>"{field: '"&amp;B9&amp;"', title: '"&amp;D9&amp;"', width:80},"</f>
+        <v>{field: 'creationTime', title: '创建时间', width:80},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>private String modifier ;</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>modifier varchar2(100),</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" ref="I10:I11" si="4">"comment on column"&amp;" "&amp;A10&amp;"."&amp;B10&amp;" is"&amp;" '"&amp;D10&amp;"';"</f>
+        <v>comment on column pst_post.modifier is '修改人';</v>
+      </c>
+      <c r="J10" s="4" t="str">
+        <f t="shared" ref="J10:J11" si="5">"{field: '"&amp;B10&amp;"', title: '"&amp;D10&amp;"', width:80},"</f>
+        <v>{field: 'modifier', title: '修改人', width:80},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>private String modifyTime ;</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>modifyTime char(19),</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="4"/>
+        <v>comment on column pst_post.modifyTime is '修改时间';</v>
+      </c>
+      <c r="J11" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>{field: 'modifyTime', title: '修改时间', width:80},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>private String ts ;</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>ts char(19),</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column pst_post.ts is '时间戳';</v>
+      </c>
+      <c r="J12" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'ts', title: '时间戳', width:80},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>private BooleanExt dr ;</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>dr char(1),</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column pst_post.dr is '删除标志';</v>
+      </c>
+      <c r="J13" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'dr', title: '删除标志', width:80},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="3" t="str">
+        <f>IF(E3=1,"  constraint "&amp;B3&amp;" PRIMARY KEY ( "&amp;B3&amp;" ) ",",")</f>
+        <v xml:space="preserve">  constraint pk_post PRIMARY KEY ( pk_post ) </v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D5D1AF-5A3B-4035-8362-FA13C0CF5B85}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.75" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="8" max="8" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="str">
+        <f>"private "&amp;IF(OR(C3="key",C3="text",C3="time"),"String",IF(C3="number","BigDecimal",IF(C3="int","Integer",IF(C3="boolean","BooleanExt","String"))))&amp;" "&amp;B3&amp;" ;"</f>
+        <v>private String pk_order_b ;</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H15" si="0">B3&amp;" "&amp;IF(C3="key","char(20)",IF(C3="text","varchar2(100)",IF(C3="boolean","char(1)",IF(C3="time","char(19)",IF(C3="int","smallint",IF(C3="number","number(18,8)","varchar2(100)"))))))&amp;IF(F3=1,"  not null,",",")</f>
+        <v>pk_order_b char(20)  not null,</v>
+      </c>
+      <c r="I3" t="str">
+        <f>"comment on column"&amp;" "&amp;A4&amp;"."&amp;B3&amp;" is"&amp;" '"&amp;D3&amp;"';"</f>
+        <v>comment on column chn_order_b.pk_order_b is '主键';</v>
+      </c>
+      <c r="J3" s="4" t="str">
+        <f>"{field: '"&amp;B3&amp;"', title: '"&amp;D3&amp;"', width:80},"</f>
+        <v>{field: 'pk_order_b', title: '主键', width:80},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="str">
+        <f>"private "&amp;IF(OR(C4="key",C4="text",C4="time"),"String",IF(C4="number","BigDecimal",IF(C4="int","Integer",IF(C4="boolean","BooleanExt","String"))))&amp;" "&amp;B4&amp;" ;"</f>
+        <v>private String pk_order ;</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>pk_order char(20)  not null,</v>
+      </c>
+      <c r="I4" t="str">
+        <f>"comment on column"&amp;" "&amp;A5&amp;"."&amp;B4&amp;" is"&amp;" '"&amp;D4&amp;"';"</f>
+        <v>comment on column chn_order_b.pk_order is '主表主键';</v>
+      </c>
+      <c r="J4" s="4" t="str">
+        <f>"{field: '"&amp;B4&amp;"', title: '"&amp;D4&amp;"', width:80},"</f>
+        <v>{field: 'pk_order', title: '主表主键', width:80},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" ref="G5:G15" si="1">"private "&amp;IF(OR(C5="key",C5="text",C5="time"),"String",IF(C5="number","BigDecimal",IF(C5="int","Integer",IF(C5="boolean","BooleanExt","String"))))&amp;" "&amp;B5&amp;" ;"</f>
+        <v>private String pk_resource ;</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>pk_resource varchar2(100)  not null,</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" ref="I5:I15" si="2">"comment on column"&amp;" "&amp;A5&amp;"."&amp;B5&amp;" is"&amp;" '"&amp;D5&amp;"';"</f>
+        <v>comment on column chn_order_b.pk_resource is '资源主键';</v>
+      </c>
+      <c r="J5" s="4" t="str">
+        <f t="shared" ref="J5:J15" si="3">"{field: '"&amp;B5&amp;"', title: '"&amp;D5&amp;"', width:80},"</f>
+        <v>{field: 'pk_resource', title: '资源主键', width:80},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>private String name ;</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>name varchar2(100),</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_order_b.name is '资源名称';</v>
+      </c>
+      <c r="J6" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'name', title: '资源名称', width:80},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>private String content ;</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>content varchar2(100),</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_order_b.content is '资源内容';</v>
+      </c>
+      <c r="J7" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'content', title: '资源内容', width:80},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>private String endtime ;</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>endtime char(19),</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_order_b.endtime is '有效期';</v>
+      </c>
+      <c r="J8" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'endtime', title: '有效期', width:80},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>private BigDecimal price ;</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>price number(18,8)  not null,</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_order_b.price is '单价';</v>
+      </c>
+      <c r="J9" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'price', title: '单价', width:80},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>private BigDecimal num ;</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>num number(18,8)  not null,</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_order_b.num is '数量';</v>
+      </c>
+      <c r="J10" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'num', title: '数量', width:80},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>178</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>private BigDecimal amount ;</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>amount number(18,8)  not null,</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_order_b.amount is '金额';</v>
+      </c>
+      <c r="J11" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'amount', title: '金额', width:80},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>private String creator ;</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>creator varchar2(100),</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_order_b.creator is '创建人';</v>
+      </c>
+      <c r="J12" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'creator', title: '创建人', width:80},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>private String creationTime ;</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>creationTime char(19),</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_order_b.creationTime is '创建时间';</v>
+      </c>
+      <c r="J13" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'creationTime', title: '创建时间', width:80},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>private String ts ;</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>ts char(19),</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_order_b.ts is '时间戳';</v>
+      </c>
+      <c r="J14" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'ts', title: '时间戳', width:80},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>private BooleanExt dr ;</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>dr char(1),</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_order_b.dr is '删除标志';</v>
+      </c>
+      <c r="J15" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'dr', title: '删除标志', width:80},</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="3" t="str">
+        <f>IF(E3=1,"  constraint "&amp;B3&amp;" PRIMARY KEY ( "&amp;B3&amp;" ) ",",")</f>
+        <v xml:space="preserve">  constraint pk_order_b PRIMARY KEY ( pk_order_b ) </v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFBB0261-E00A-4D61-9A7D-31CD866940DC}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.75" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="8" max="8" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="str">
+        <f>"private "&amp;IF(OR(C3="key",C3="text",C3="time"),"String",IF(C3="number","BigDecimal",IF(C3="int","Integer",IF(C3="boolean","BooleanExt","String"))))&amp;" "&amp;B3&amp;" ;"</f>
+        <v>private String pk_order ;</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H11" si="0">B3&amp;" "&amp;IF(C3="key","char(20)",IF(C3="text","varchar2(100)",IF(C3="boolean","char(1)",IF(C3="time","char(19)",IF(C3="int","smallint",IF(C3="number","number(18,8)","varchar2(100)"))))))&amp;IF(F3=1,"  not null,",",")</f>
+        <v>pk_order char(20)  not null,</v>
+      </c>
+      <c r="I3" t="str">
+        <f>"comment on column"&amp;" "&amp;A3&amp;"."&amp;B3&amp;" is"&amp;" '"&amp;D3&amp;"';"</f>
+        <v>comment on column chn_order.pk_order is '主键';</v>
+      </c>
+      <c r="J3" s="4" t="str">
+        <f>"{field: '"&amp;B3&amp;"', title: '"&amp;D3&amp;"', width:80},"</f>
+        <v>{field: 'pk_order', title: '主键', width:80},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" ref="G4:G11" si="1">"private "&amp;IF(OR(C4="key",C4="text",C4="time"),"String",IF(C4="number","BigDecimal",IF(C4="int","Integer",IF(C4="boolean","BooleanExt","String"))))&amp;" "&amp;B4&amp;" ;"</f>
+        <v>private String title ;</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>title varchar2(100)  not null,</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" ref="I4:I11" si="2">"comment on column"&amp;" "&amp;A4&amp;"."&amp;B4&amp;" is"&amp;" '"&amp;D4&amp;"';"</f>
+        <v>comment on column chn_order.title is '标题';</v>
+      </c>
+      <c r="J4" s="4" t="str">
+        <f t="shared" ref="J4:J11" si="3">"{field: '"&amp;B4&amp;"', title: '"&amp;D4&amp;"', width:80},"</f>
+        <v>{field: 'title', title: '标题', width:80},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>private String memeo ;</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>memeo varchar2(100),</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_order.memeo is '备注';</v>
+      </c>
+      <c r="J5" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'memeo', title: '备注', width:80},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>private String amount ;</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>amount char(19)  not null,</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_order.amount is '总金额';</v>
+      </c>
+      <c r="J6" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'amount', title: '总金额', width:80},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>private Integer state ;</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>state smallint  not null,</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_order.state is '订单状态';</v>
+      </c>
+      <c r="J7" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'state', title: '订单状态', width:80},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>private String creator ;</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>creator varchar2(100),</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_order.creator is '创建人';</v>
+      </c>
+      <c r="J8" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'creator', title: '创建人', width:80},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>private String creationTime ;</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>creationTime char(19),</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_order.creationTime is '创建时间';</v>
+      </c>
+      <c r="J9" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'creationTime', title: '创建时间', width:80},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>private String ts ;</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>ts char(19),</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_order.ts is '时间戳';</v>
+      </c>
+      <c r="J10" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'ts', title: '时间戳', width:80},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>private BooleanExt dr ;</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>dr char(1),</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_order.dr is '删除标志';</v>
+      </c>
+      <c r="J11" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'dr', title: '删除标志', width:80},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="3" t="str">
+        <f>IF(E3=1,"  constraint "&amp;B3&amp;" PRIMARY KEY ( "&amp;B3&amp;" ) ",",")</f>
+        <v xml:space="preserve">  constraint pk_order PRIMARY KEY ( pk_order ) </v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB7DC25-073D-4325-BC34-DD905C29397B}">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.75" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="8" max="8" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="str">
+        <f>"private "&amp;IF(OR(C3="key",C3="text",C3="time"),"String",IF(C3="number","BigDecimal",IF(C3="int","Integer",IF(C3="boolean","BooleanExt","String"))))&amp;" "&amp;B3&amp;" ;"</f>
+        <v>private String pk_user_resource ;</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H10" si="0">B3&amp;" "&amp;IF(C3="key","char(20)",IF(C3="text","varchar2(100)",IF(C3="boolean","char(1)",IF(C3="time","char(19)",IF(C3="int","smallint",IF(C3="number","number(18,8)","varchar2(100)"))))))&amp;IF(F3=1,"  not null,",",")</f>
+        <v>pk_user_resource char(20)  not null,</v>
+      </c>
+      <c r="I3" t="str">
+        <f>"comment on column"&amp;" "&amp;A3&amp;"."&amp;B3&amp;" is"&amp;" '"&amp;D3&amp;"';"</f>
+        <v>comment on column chn_user_resource.pk_user_resource is '主键';</v>
+      </c>
+      <c r="J3" s="4" t="str">
+        <f>"{field: '"&amp;B3&amp;"', title: '"&amp;D3&amp;"', width:80},"</f>
+        <v>{field: 'pk_user_resource', title: '主键', width:80},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" ref="G4:G10" si="1">"private "&amp;IF(OR(C4="key",C4="text",C4="time"),"String",IF(C4="number","BigDecimal",IF(C4="int","Integer",IF(C4="boolean","BooleanExt","String"))))&amp;" "&amp;B4&amp;" ;"</f>
+        <v>private String name ;</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>name varchar2(100)  not null,</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" ref="I4:I10" si="2">"comment on column"&amp;" "&amp;A4&amp;"."&amp;B4&amp;" is"&amp;" '"&amp;D4&amp;"';"</f>
+        <v>comment on column chn_user_resource.name is '资源名称';</v>
+      </c>
+      <c r="J4" s="4" t="str">
+        <f t="shared" ref="J4:J10" si="3">"{field: '"&amp;B4&amp;"', title: '"&amp;D4&amp;"', width:80},"</f>
+        <v>{field: 'name', title: '资源名称', width:80},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>private String content ;</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>content varchar2(100)  not null,</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_user_resource.content is '资源内容';</v>
+      </c>
+      <c r="J5" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'content', title: '资源内容', width:80},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>private String endtime ;</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>endtime char(19),</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_user_resource.endtime is '有效期';</v>
+      </c>
+      <c r="J6" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'endtime', title: '有效期', width:80},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>private String pk_resource ;</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>pk_resource char(20),</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_user_resource.pk_resource is '资源主键';</v>
+      </c>
+      <c r="J7" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'pk_resource', title: '资源主键', width:80},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>private String pk_user ;</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>pk_user char(20),</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_user_resource.pk_user is '用户主键';</v>
+      </c>
+      <c r="J8" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'pk_user', title: '用户主键', width:80},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>private String ts ;</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>ts char(19),</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_user_resource.ts is '时间戳';</v>
+      </c>
+      <c r="J9" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'ts', title: '时间戳', width:80},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>private BooleanExt dr ;</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>dr char(1),</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_user_resource.dr is '删除标志';</v>
+      </c>
+      <c r="J10" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'dr', title: '删除标志', width:80},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="3" t="str">
+        <f>IF(E3=1,"  constraint "&amp;B3&amp;" PRIMARY KEY ( "&amp;B3&amp;" ) ",",")</f>
+        <v xml:space="preserve">  constraint pk_user_resource PRIMARY KEY ( pk_user_resource ) </v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" display="http://www.baidu.com/link?url=xKpjUAC2IEcPp0C5HIPTEYUBYWYiLzDH1rc4IC7EQpdaQcFLwmROMcl3IU4mOYfy0B5e_gsekd38IR-Ml2VYIjzjkymmR59dtW_xrr0WlQG" xr:uid="{28278867-9D19-4A75-AB5A-0F3AE180DC8E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3217A68C-B6A8-4410-807A-C190C49B4C87}">
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15:D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.75" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="8" max="8" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="str">
+        <f>"private "&amp;IF(OR(C3="key",C3="text",C3="time"),"String",IF(C3="number","BigDecimal",IF(C3="int","Integer",IF(C3="boolean","BooleanExt","String"))))&amp;" "&amp;B3&amp;" ;"</f>
+        <v>private String pk_resource ;</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H18" si="0">B3&amp;" "&amp;IF(C3="key","char(20)",IF(C3="text","varchar2(100)",IF(C3="boolean","char(1)",IF(C3="time","char(19)",IF(C3="int","smallint",IF(C3="number","number(18,8)","varchar2(100)"))))))&amp;IF(F3=1,"  not null,",",")</f>
+        <v>pk_resource char(20)  not null,</v>
+      </c>
+      <c r="I3" t="str">
+        <f>"comment on column"&amp;" "&amp;A3&amp;"."&amp;B3&amp;" is"&amp;" '"&amp;D3&amp;"';"</f>
+        <v>comment on column chn_resource.pk_resource is '主键';</v>
+      </c>
+      <c r="J3" s="4" t="str">
+        <f>"{field: '"&amp;B3&amp;"', title: '"&amp;D3&amp;"', width:80},"</f>
+        <v>{field: 'pk_resource', title: '主键', width:80},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" ref="G4:G18" si="1">"private "&amp;IF(OR(C4="key",C4="text",C4="time"),"String",IF(C4="number","BigDecimal",IF(C4="int","Integer",IF(C4="boolean","BooleanExt","String"))))&amp;" "&amp;B4&amp;" ;"</f>
+        <v>private String permtype ;</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>permtype varchar2(100)  not null,</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" ref="I4:I18" si="2">"comment on column"&amp;" "&amp;A4&amp;"."&amp;B4&amp;" is"&amp;" '"&amp;D4&amp;"';"</f>
+        <v>comment on column chn_resource.permtype is '权限类型';</v>
+      </c>
+      <c r="J4" s="4" t="str">
+        <f t="shared" ref="J4:J18" si="3">"{field: '"&amp;B4&amp;"', title: '"&amp;D4&amp;"', width:80},"</f>
+        <v>{field: 'permtype', title: '权限类型', width:80},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>private String secourcetype ;</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>secourcetype varchar2(100)  not null,</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_resource.secourcetype is '资源类型';</v>
+      </c>
+      <c r="J5" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'secourcetype', title: '资源类型', width:80},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>private String title ;</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>title char(20)  not null,</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_resource.title is '标题';</v>
+      </c>
+      <c r="J6" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'title', title: '标题', width:80},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>private String content ;</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>content varchar2(100)  not null,</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_resource.content is '内容';</v>
+      </c>
+      <c r="J7" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'content', title: '内容', width:80},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>private BigDecimal price ;</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>price number(18,8),</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_resource.price is '单价';</v>
+      </c>
+      <c r="J8" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'price', title: '单价', width:80},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>private Integer orderno ;</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>orderno smallint,</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_resource.orderno is '排序号';</v>
+      </c>
+      <c r="J9" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'orderno', title: '排序号', width:80},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>private String billtype ;</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>billtype varchar2(100),</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_resource.billtype is '数量';</v>
+      </c>
+      <c r="J10" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'billtype', title: '数量', width:80},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>161</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>private String pk_china ;</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>pk_china char(20),</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_resource.pk_china is '所属陶瓷';</v>
+      </c>
+      <c r="J11" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'pk_china', title: '所属陶瓷', width:80},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>163</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>private String pk_know ;</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>pk_know char(20),</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_resource.pk_know is '所属知识';</v>
+      </c>
+      <c r="J12" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'pk_know', title: '所属知识', width:80},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>private String creator ;</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>creator varchar2(100),</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_resource.creator is '创建人';</v>
+      </c>
+      <c r="J13" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'creator', title: '创建人', width:80},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>private String creationTime ;</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>creationTime char(19),</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_resource.creationTime is '创建时间';</v>
+      </c>
+      <c r="J14" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'creationTime', title: '创建时间', width:80},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>private String modifier ;</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>modifier varchar2(100),</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_resource.modifier is '修改人';</v>
+      </c>
+      <c r="J15" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'modifier', title: '修改人', width:80},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>private String modifyTime ;</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>modifyTime char(19),</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_resource.modifyTime is '修改时间';</v>
+      </c>
+      <c r="J16" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'modifyTime', title: '修改时间', width:80},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>private String ts ;</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>ts char(19),</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_resource.ts is '时间戳';</v>
+      </c>
+      <c r="J17" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'ts', title: '时间戳', width:80},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>private BooleanExt dr ;</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>dr char(1),</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_resource.dr is '删除标志';</v>
+      </c>
+      <c r="J18" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'dr', title: '删除标志', width:80},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="3" t="str">
+        <f>IF(E3=1,"  constraint "&amp;B3&amp;" PRIMARY KEY ( "&amp;B3&amp;" ) ",",")</f>
+        <v xml:space="preserve">  constraint pk_resource PRIMARY KEY ( pk_resource ) </v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" display="http://www.baidu.com/link?url=xKpjUAC2IEcPp0C5HIPTEYUBYWYiLzDH1rc4IC7EQpdaQcFLwmROMcl3IU4mOYfy0B5e_gsekd38IR-Ml2VYIjzjkymmR59dtW_xrr0WlQG" xr:uid="{748DCF0E-6582-4DEF-9453-243AA4884A35}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA944B0-2DF1-4EC8-A3F8-9E692B901187}">
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.75" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="8" max="8" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="str">
+        <f>"private "&amp;IF(OR(C3="key",C3="text",C3="time"),"String",IF(C3="number","BigDecimal",IF(C3="int","Integer",IF(C3="boolean","BooleanExt","String"))))&amp;" "&amp;B3&amp;" ;"</f>
+        <v>private String pk_know ;</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H20" si="0">B3&amp;" "&amp;IF(C3="key","char(20)",IF(C3="text","varchar2(100)",IF(C3="boolean","char(1)",IF(C3="time","char(19)",IF(C3="int","smallint",IF(C3="number","number(18,8)","varchar2(100)"))))))&amp;IF(F3=1,"  not null,",",")</f>
+        <v>pk_know char(20)  not null,</v>
+      </c>
+      <c r="I3" t="str">
+        <f>"comment on column"&amp;" "&amp;A3&amp;"."&amp;B3&amp;" is"&amp;" '"&amp;D3&amp;"';"</f>
+        <v>comment on column chn_know.pk_know is '主键';</v>
+      </c>
+      <c r="J3" s="4" t="str">
+        <f>"{field: '"&amp;B3&amp;"', title: '"&amp;D3&amp;"', width:80},"</f>
+        <v>{field: 'pk_know', title: '主键', width:80},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" ref="G4:G20" si="1">"private "&amp;IF(OR(C4="key",C4="text",C4="time"),"String",IF(C4="number","BigDecimal",IF(C4="int","Integer",IF(C4="boolean","BooleanExt","String"))))&amp;" "&amp;B4&amp;" ;"</f>
+        <v>private String title ;</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>title varchar2(100)  not null,</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" ref="I4:I20" si="2">"comment on column"&amp;" "&amp;A4&amp;"."&amp;B4&amp;" is"&amp;" '"&amp;D4&amp;"';"</f>
+        <v>comment on column chn_know.title is '标题';</v>
+      </c>
+      <c r="J4" s="4" t="str">
+        <f t="shared" ref="J4:J20" si="3">"{field: '"&amp;B4&amp;"', title: '"&amp;D4&amp;"', width:80},"</f>
+        <v>{field: 'title', title: '标题', width:80},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>private String code ;</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>code varchar2(100),</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_know.code is '编号';</v>
+      </c>
+      <c r="J5" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'code', title: '编号', width:80},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>private String pk_author ;</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>pk_author char(20),</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_know.pk_author is '作者';</v>
+      </c>
+      <c r="J6" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'pk_author', title: '作者', width:80},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>private String kilneye ;</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>kilneye varchar2(100),</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_know.kilneye is '窑口';</v>
+      </c>
+      <c r="J7" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'kilneye', title: '窑口', width:80},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>private String times ;</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>times varchar2(100),</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_know.times is '年代';</v>
+      </c>
+      <c r="J8" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'times', title: '年代', width:80},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>private String model ;</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>model varchar2(100),</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_know.model is '造型';</v>
+      </c>
+      <c r="J9" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'model', title: '造型', width:80},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>private String journalnum ;</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>journalnum varchar2(100),</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_know.journalnum is '期刊号';</v>
+      </c>
+      <c r="J10" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'journalnum', title: '期刊号', width:80},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>private String memo ;</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>memo varchar2(100),</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_know.memo is '简介';</v>
+      </c>
+      <c r="J11" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'memo', title: '简介', width:80},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>private String keyword ;</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>keyword varchar2(100),</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_know.keyword is '关键词';</v>
+      </c>
+      <c r="J12" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'keyword', title: '关键词', width:80},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>private String syskeyword ;</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>syskeyword varchar2(100),</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_know.syskeyword is '系统关键词';</v>
+      </c>
+      <c r="J13" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'syskeyword', title: '系统关键词', width:80},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>private BigDecimal price ;</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>price number(18,8),</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_know.price is '单价';</v>
+      </c>
+      <c r="J14" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'price', title: '单价', width:80},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>private String creator ;</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>creator varchar2(100),</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_know.creator is '创建人';</v>
+      </c>
+      <c r="J15" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'creator', title: '创建人', width:80},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>188</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>private String creationTime ;</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>creationTime char(19),</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_know.creationTime is '创建时间';</v>
+      </c>
+      <c r="J16" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'creationTime', title: '创建时间', width:80},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>private String modifier ;</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>modifier varchar2(100),</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_know.modifier is '修改人';</v>
+      </c>
+      <c r="J17" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'modifier', title: '修改人', width:80},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>private String modifyTime ;</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>modifyTime char(19),</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_know.modifyTime is '修改时间';</v>
+      </c>
+      <c r="J18" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'modifyTime', title: '修改时间', width:80},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>188</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>private String ts ;</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>ts char(19),</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_know.ts is '时间戳';</v>
+      </c>
+      <c r="J19" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'ts', title: '时间戳', width:80},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>188</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>private BooleanExt dr ;</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>dr char(1),</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_know.dr is '删除标志';</v>
+      </c>
+      <c r="J20" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'dr', title: '删除标志', width:80},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="3" t="str">
+        <f>IF(E3=1,"  constraint "&amp;B3&amp;" PRIMARY KEY ( "&amp;B3&amp;" ) ",",")</f>
+        <v xml:space="preserve">  constraint pk_know PRIMARY KEY ( pk_know ) </v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" display="http://www.baidu.com/link?url=xKpjUAC2IEcPp0C5HIPTEYUBYWYiLzDH1rc4IC7EQpdaQcFLwmROMcl3IU4mOYfy0B5e_gsekd38IR-Ml2VYIjzjkymmR59dtW_xrr0WlQG" xr:uid="{8F7C7760-88B0-47F5-9079-6783AE4D2254}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C851900-FF7F-4BA4-983F-88CF4BD14EB7}">
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.75" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="8" max="8" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="str">
+        <f>"private "&amp;IF(OR(C3="key",C3="text",C3="time"),"String",IF(C3="number","BigDecimal",IF(C3="int","Integer",IF(C3="boolean","BooleanExt","String"))))&amp;" "&amp;B3&amp;" ;"</f>
+        <v>private String pk_china ;</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H20" si="0">B3&amp;" "&amp;IF(C3="key","char(20)",IF(C3="text","varchar2(100)",IF(C3="boolean","char(1)",IF(C3="time","char(19)",IF(C3="int","smallint",IF(C3="number","number(18,8)","varchar2(100)"))))))&amp;IF(F3=1,"  not null,",",")</f>
+        <v>pk_china char(20)  not null,</v>
+      </c>
+      <c r="I3" t="str">
+        <f>"comment on column"&amp;" "&amp;A3&amp;"."&amp;B3&amp;" is"&amp;" '"&amp;D3&amp;"';"</f>
+        <v>comment on column chn_china.pk_china is '主键';</v>
+      </c>
+      <c r="J3" s="4" t="str">
+        <f>"{field: '"&amp;B3&amp;"', title: '"&amp;D3&amp;"', width:80},"</f>
+        <v>{field: 'pk_china', title: '主键', width:80},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" ref="G4:G20" si="1">"private "&amp;IF(OR(C4="key",C4="text",C4="time"),"String",IF(C4="number","BigDecimal",IF(C4="int","Integer",IF(C4="boolean","BooleanExt","String"))))&amp;" "&amp;B4&amp;" ;"</f>
+        <v>private String title ;</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>title varchar2(100)  not null,</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" ref="I4:I20" si="2">"comment on column"&amp;" "&amp;A4&amp;"."&amp;B4&amp;" is"&amp;" '"&amp;D4&amp;"';"</f>
+        <v>comment on column chn_china.title is '标题';</v>
+      </c>
+      <c r="J4" s="4" t="str">
+        <f t="shared" ref="J4:J20" si="3">"{field: '"&amp;B4&amp;"', title: '"&amp;D4&amp;"', width:80},"</f>
+        <v>{field: 'title', title: '标题', width:80},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>private String code ;</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>code varchar2(100)  not null,</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_china.code is '编号';</v>
+      </c>
+      <c r="J5" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'code', title: '编号', width:80},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>private String pk_author ;</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>pk_author char(20),</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_china.pk_author is '作者';</v>
+      </c>
+      <c r="J6" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'pk_author', title: '作者', width:80},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>private String kilneye ;</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>kilneye varchar2(100),</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_china.kilneye is '窑口';</v>
+      </c>
+      <c r="J7" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'kilneye', title: '窑口', width:80},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>private String times ;</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>times varchar2(100),</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_china.times is '年代';</v>
+      </c>
+      <c r="J8" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'times', title: '年代', width:80},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>private String model ;</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>model varchar2(100),</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_china.model is '造型';</v>
+      </c>
+      <c r="J9" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'model', title: '造型', width:80},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>private String num ;</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>num varchar2(100),</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_china.num is '数量';</v>
+      </c>
+      <c r="J10" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'num', title: '数量', width:80},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>private String memo ;</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>memo varchar2(100),</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_china.memo is '简介';</v>
+      </c>
+      <c r="J11" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'memo', title: '简介', width:80},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>private String keyword ;</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>keyword varchar2(100),</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_china.keyword is '关键词';</v>
+      </c>
+      <c r="J12" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'keyword', title: '关键词', width:80},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>private String syskeyword ;</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>syskeyword varchar2(100),</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_china.syskeyword is '系统关键词';</v>
+      </c>
+      <c r="J13" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'syskeyword', title: '系统关键词', width:80},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>private BigDecimal price ;</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>price number(18,8),</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_china.price is '单价';</v>
+      </c>
+      <c r="J14" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'price', title: '单价', width:80},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>private String creator ;</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>creator varchar2(100),</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_china.creator is '创建人';</v>
+      </c>
+      <c r="J15" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'creator', title: '创建人', width:80},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>private String creationTime ;</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>creationTime char(19),</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_china.creationTime is '创建时间';</v>
+      </c>
+      <c r="J16" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'creationTime', title: '创建时间', width:80},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>private String modifier ;</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>modifier varchar2(100),</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_china.modifier is '修改人';</v>
+      </c>
+      <c r="J17" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'modifier', title: '修改人', width:80},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>private String modifyTime ;</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>modifyTime char(19),</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_china.modifyTime is '修改时间';</v>
+      </c>
+      <c r="J18" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'modifyTime', title: '修改时间', width:80},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>private String ts ;</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>ts char(19),</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_china.ts is '时间戳';</v>
+      </c>
+      <c r="J19" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'ts', title: '时间戳', width:80},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>private BooleanExt dr ;</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>dr char(1),</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_china.dr is '删除标志';</v>
+      </c>
+      <c r="J20" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'dr', title: '删除标志', width:80},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="3" t="str">
+        <f>IF(E3=1,"  constraint "&amp;B3&amp;" PRIMARY KEY ( "&amp;B3&amp;" ) ",",")</f>
+        <v xml:space="preserve">  constraint pk_china PRIMARY KEY ( pk_china ) </v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" display="http://www.baidu.com/link?url=xKpjUAC2IEcPp0C5HIPTEYUBYWYiLzDH1rc4IC7EQpdaQcFLwmROMcl3IU4mOYfy0B5e_gsekd38IR-Ml2VYIjzjkymmR59dtW_xrr0WlQG" xr:uid="{35C0249C-2668-420F-BC97-8BCFE6FC62DD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82DFD98-F65B-4311-8356-1E0216825023}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.75" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="8" max="8" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="str">
+        <f>"private "&amp;IF(OR(C3="key",C3="text",C3="time"),"String",IF(C3="number","BigDecimal",IF(C3="int","Integer",IF(C3="boolean","BooleanExt","String"))))&amp;" "&amp;B3&amp;" ;"</f>
+        <v>private String pk_author ;</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H15" si="0">B3&amp;" "&amp;IF(C3="key","char(20)",IF(C3="text","varchar2(100)",IF(C3="boolean","char(1)",IF(C3="time","char(19)",IF(C3="int","smallint",IF(C3="number","number(18,8)","varchar2(100)"))))))&amp;IF(F3=1,"  not null,",",")</f>
+        <v>pk_author char(20)  not null,</v>
+      </c>
+      <c r="I3" t="str">
+        <f>"comment on column"&amp;" "&amp;A3&amp;"."&amp;B3&amp;" is"&amp;" '"&amp;D3&amp;"';"</f>
+        <v>comment on column chn_author.pk_author is '主键';</v>
+      </c>
+      <c r="J3" s="4" t="str">
+        <f>"{field: '"&amp;B3&amp;"', title: '"&amp;D3&amp;"', width:80},"</f>
+        <v>{field: 'pk_author', title: '主键', width:80},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" ref="G4:G15" si="1">"private "&amp;IF(OR(C4="key",C4="text",C4="time"),"String",IF(C4="number","BigDecimal",IF(C4="int","Integer",IF(C4="boolean","BooleanExt","String"))))&amp;" "&amp;B4&amp;" ;"</f>
+        <v>private String name ;</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>name varchar2(100)  not null,</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" ref="I4:I15" si="2">"comment on column"&amp;" "&amp;A4&amp;"."&amp;B4&amp;" is"&amp;" '"&amp;D4&amp;"';"</f>
+        <v>comment on column chn_author.name is '名称';</v>
+      </c>
+      <c r="J4" s="4" t="str">
+        <f t="shared" ref="J4:J15" si="3">"{field: '"&amp;B4&amp;"', title: '"&amp;D4&amp;"', width:80},"</f>
+        <v>{field: 'name', title: '名称', width:80},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>private String record ;</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>record varchar2(100)  not null,</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_author.record is '备案号';</v>
+      </c>
+      <c r="J5" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'record', title: '备案号', width:80},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>private String address ;</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>address varchar2(100),</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_author.address is '地址';</v>
+      </c>
+      <c r="J6" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'address', title: '地址', width:80},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>private String cantact ;</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>cantact varchar2(100),</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_author.cantact is '联系方式';</v>
+      </c>
+      <c r="J7" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'cantact', title: '联系方式', width:80},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>private String url ;</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>url varchar2(100),</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_author.url is '官网地址';</v>
+      </c>
+      <c r="J8" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'url', title: '官网地址', width:80},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>private String email ;</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>email varchar2(100),</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_author.email is '邮箱';</v>
+      </c>
+      <c r="J9" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'email', title: '邮箱', width:80},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>private String creator ;</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>creator varchar2(100),</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_author.creator is '创建人';</v>
+      </c>
+      <c r="J10" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'creator', title: '创建人', width:80},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>private String creationTime ;</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>creationTime char(19),</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_author.creationTime is '创建时间';</v>
+      </c>
+      <c r="J11" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'creationTime', title: '创建时间', width:80},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>private String modifier ;</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>modifier varchar2(100),</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_author.modifier is '修改人';</v>
+      </c>
+      <c r="J12" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'modifier', title: '修改人', width:80},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>private String modifyTime ;</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>modifyTime char(19),</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_author.modifyTime is '修改时间';</v>
+      </c>
+      <c r="J13" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'modifyTime', title: '修改时间', width:80},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>private String ts ;</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>ts char(19),</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_author.ts is '时间戳';</v>
+      </c>
+      <c r="J14" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'ts', title: '时间戳', width:80},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>private BooleanExt dr ;</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>dr char(1),</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="2"/>
+        <v>comment on column chn_author.dr is '删除标志';</v>
+      </c>
+      <c r="J15" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>{field: 'dr', title: '删除标志', width:80},</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="3" t="str">
+        <f>IF(E3=1,"  constraint "&amp;B3&amp;" PRIMARY KEY ( "&amp;B3&amp;" ) ",",")</f>
+        <v xml:space="preserve">  constraint pk_author PRIMARY KEY ( pk_author ) </v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>